--- a/MainTop/08.04.2025/p2.xlsx
+++ b/MainTop/08.04.2025/p2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,14 +548,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Термонаклейка Аист оранжевый круг</t>
+          <t>Термонаклейка Цветы Пионы розовый Peonies</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -564,37 +564,37 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="n">
         <v>5</v>
       </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2</v>
-      </c>
       <c r="P2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Термонаклейка Ловец снов акварель</t>
+          <t>Термонаклейка Аист оранжевый круг</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -631,28 +631,28 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
         <v>5</v>
       </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
@@ -688,42 +688,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Лотос розовый золотистый</t>
+          <t>Термонаклейка Ловец снов акварель</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
         <v>7</v>
       </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2</v>
-      </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
@@ -734,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -758,33 +758,33 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Термонаклейка Чёрная кошка с узорами на фоне луны</t>
+          <t>Термонаклейка Лотос розовый золотистый</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
       <c r="J5" t="n">
         <v>2</v>
       </c>
@@ -795,16 +795,16 @@
         <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -828,20 +828,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Термонаклейка набор Щенячий Патруль Paw Patrol</t>
+          <t>Термонаклейка Чёрная кошка с узорами на фоне луны</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -859,19 +859,19 @@
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
         <v>38</v>
@@ -898,7 +898,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Магнолия фиолетовая Garden</t>
+          <t>Термонаклейка набор Щенячий Патруль Paw Patrol</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -914,37 +914,37 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
         <v>9</v>
       </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Пионы надпись</t>
+          <t>Термонаклейка Цветы Магнолия фиолетовая Garden</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -978,28 +978,28 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>34</v>
@@ -1038,7 +1038,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Термонаклейка Крылья красочные маслом</t>
+          <t>Термонаклейка Цветы Пионы надпись</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1048,28 +1048,28 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
         <v>5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1081,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>34</v>
@@ -1100,146 +1100,6 @@
         <v>17</v>
       </c>
       <c r="V9" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Термонаклейка Матрешка с хлебом</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" t="n">
-        <v>8</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="n">
-        <v>17</v>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Термонаклейка Рука Фатимы</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>13</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="n">
-        <v>16</v>
-      </c>
-      <c r="V11" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>

--- a/MainTop/08.04.2025/p2.xlsx
+++ b/MainTop/08.04.2025/p2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,105 +441,60 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Беларусь</t>
+          <t>Дальний Восток</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Волгоград</t>
+          <t>Москва, МО и Дальние регионы</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Воронеж</t>
+          <t>Самара</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Дальний Восток</t>
+          <t>Санкт-Петербург и СЗО</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Урал</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Краснодар</t>
+          <t>Num_Copies</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Красноярск</t>
+          <t>осталось</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Москва, МО и Дальние регионы</t>
+          <t>тип упорядочить</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Новосибирск</t>
+          <t>Unnamed: 10</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Ростов</t>
+          <t>Unnamed: 11</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Самара</t>
+          <t>Unnamed: 12</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург и СЗО</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Урал</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Уфа</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Num_Copies</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>осталось</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>тип упорядочить</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 19</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 20</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 21</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Тип упорядочить</t>
         </is>
@@ -548,68 +503,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Пионы розовый Peonies</t>
+          <t>Термонаклейка Девочка и Лиса</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>11</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>23</v>
-      </c>
-      <c r="V2" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -618,68 +546,41 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Термонаклейка Аист оранжевый круг</t>
+          <t>Термонаклейка Сердце Букет Цветы</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>22</v>
-      </c>
-      <c r="V3" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -688,68 +589,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Ловец снов акварель</t>
+          <t>Термонаклейка Кит в Цветах</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>22</v>
-      </c>
-      <c r="V4" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -758,11 +632,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Термонаклейка Лотос розовый золотистый</t>
+          <t>Термонаклейка Цветы Магнолия белые Botanical</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -771,55 +645,28 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>20</v>
-      </c>
-      <c r="V5" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -828,68 +675,41 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Термонаклейка Чёрная кошка с узорами на фоне луны</t>
+          <t>Термонаклейка Подсолнухи Цветы</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>19</v>
-      </c>
-      <c r="V6" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -898,11 +718,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Термонаклейка набор Щенячий Патруль Paw Patrol</t>
+          <t>Термонаклейка Цветы Синии Амариллис</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -911,55 +731,28 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>9</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
-        <v>19</v>
-      </c>
-      <c r="V7" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -968,68 +761,41 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Магнолия фиолетовая Garden</t>
+          <t>Термонаклейка Морская Черепаха Море силует</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="n">
-        <v>17</v>
-      </c>
-      <c r="V8" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -1038,68 +804,2191 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Термонаклейка Девушка силует туман лес птицы</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Термонаклейка Мэрилин Монро Поп арт жвачка</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аниме девочка с мыльными пузырями</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Термонаклейка Матрешка цветы</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Термонаклейка Белая Лошадь Цветы</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Термонаклейка Цветы Пионы надпись</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
         <v>8</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Термонаклейки Nike Найк набор</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
         <v>3</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>17</v>
-      </c>
-      <c r="V9" t="inlineStr">
+      <c r="G15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Термонаклейка Одри Хепбёрн холст Vogue</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Термонаклейка Перья Яркие Wild Spirit</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Термонаклейка Пара леопардов в ночной листве</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Желтый Мак</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Термонаклейка Чайка силует море внутри</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Термонаклейка Матрешка Moscow</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка с галактической магией</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Термонаклейка Лев Краски Дизайн</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Термонаклейка Секс в большом городе подруги</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>3</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Термонаклейка Сердце Большая волна в Канагаве</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Колибри 2шт</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка макияж Хэллоуин</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>3</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Термонаклейка Бабочка синяя Blue butterfly</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>3</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Тюльпаны 3шт розовые</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>3</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Термонаклейка Давид статуя цветы</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>3</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Термонаклейка Маленький принц на синем ките</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Термонаклейка Мэрилин Монро Медуза Горгона</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Магнолия 3шт розовые</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Термонаклейка Белый волк с цветами и узорами</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кот Сфинкс Звезды Молния</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Термонаклейка Сердце Love is Wild</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кит в золотом дизайне космос</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Термонаклейка Инь Янь Леопарды</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Термонаклейка Лес Гитара Закат</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Термонаклейка Мотылек Луна</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Термонаклейка Солнце Луна Звезды Астрология</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Термонаклейка Тигр в витражном стиле</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Термонаклейка Тигр спит среди тропических цветов</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Термонаклейка набор Симпсоны The Simpsons</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Термонаклейка Бабочки 4шт небо внутри</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка Природа Силует</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Термонаклейка Леопард пятна сердечки голова</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Термонаклейка Попугаи 2шт зеленый и желтый</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Термонаклейка Сердце Море Силует</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Термонаклейка Сердце разынй окрас</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка в цветах и золотом круге</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Термонаклейка Белый Кот в цветах</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка Силует Закат</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кит моряк волны лодка</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Термонаклейка Сердце Бабочки летят</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Термонаклейка Микки Маус бабочки цверы силует</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Термонаклейка Пантера силует внутри цветы</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Термонаклейка Чёрный волк красный луна</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Термонаклейка набор Винни Пух</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
